--- a/QCOM.xlsx
+++ b/QCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCA866-524D-4DE2-B3AC-83C2469C0C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC2F3E-47D4-4681-9EB2-4C3A9A8524E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{901B265C-E4E9-49A1-A062-FD11118EC225}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{901B265C-E4E9-49A1-A062-FD11118EC225}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +211,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -232,6 +230,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,20 +265,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -606,32 +619,33 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>159.83000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="3">
@@ -641,11 +655,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="3">
@@ -653,11 +667,11 @@
         <v>177571.13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3">
@@ -668,8 +682,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3">
@@ -680,8 +694,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="3">
@@ -702,21 +716,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -763,8 +778,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3"/>
@@ -805,8 +820,8 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3"/>
@@ -847,8 +862,8 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3"/>
@@ -889,8 +904,8 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3"/>
@@ -933,8 +948,8 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3"/>
@@ -977,7 +992,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -991,7 +1006,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6">
-        <f t="shared" ref="K8:P8" si="0">+SUM(L6:L7)</f>
+        <f t="shared" ref="L8:P8" si="0">+SUM(L6:L7)</f>
         <v>0</v>
       </c>
       <c r="M8" s="6">
@@ -1036,8 +1051,8 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="3"/>
@@ -1080,8 +1095,8 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="3"/>
@@ -1139,8 +1154,8 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3"/>
@@ -1183,8 +1198,8 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="3"/>
@@ -1227,8 +1242,8 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="3"/>
@@ -1271,8 +1286,8 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="3"/>
@@ -1330,8 +1345,8 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3"/>
@@ -1374,8 +1389,8 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3"/>
@@ -1418,8 +1433,8 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="3"/>
@@ -1477,8 +1492,8 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3"/>
@@ -1521,8 +1536,8 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="3"/>
@@ -1580,8 +1595,8 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3"/>
@@ -1624,8 +1639,8 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3"/>
@@ -1683,7 +1698,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1718,8 +1733,8 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="3"/>
@@ -1731,31 +1746,31 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="2" t="e">
+      <c r="L23" s="7" t="e">
         <f t="shared" ref="L23:P23" si="11">+L21/L24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="2" t="e">
+      <c r="M23" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="2" t="e">
+      <c r="N23" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="7">
         <f t="shared" si="11"/>
         <v>11.519145146927873</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="7">
         <f t="shared" si="11"/>
         <v>6.4744852282900629</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="7">
         <f>+Q21/Q24</f>
         <v>9.0878136200716852</v>
       </c>
-      <c r="R23" s="2" t="e">
+      <c r="R23" s="7" t="e">
         <f t="shared" ref="R23" si="12">+R21/R24</f>
         <v>#DIV/0!</v>
       </c>
@@ -1777,8 +1792,8 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3"/>
@@ -1821,7 +1836,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1856,8 +1871,8 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="3"/>
@@ -1869,24 +1884,24 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="e">
-        <f t="shared" ref="L26:Q28" si="13">+M6/L6-1</f>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="e">
+        <f t="shared" ref="M26:P28" si="13">+M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="7" t="e">
+      <c r="N26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="7" t="e">
+      <c r="O26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="8">
         <f t="shared" si="13"/>
         <v>-0.1921659358101746</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="8">
         <f>+Q6/P6-1</f>
         <v>9.2014120154522372E-2</v>
       </c>
@@ -1909,8 +1924,8 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="3"/>
@@ -1923,23 +1938,23 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="7" t="e">
+      <c r="M27" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="7" t="e">
+      <c r="N27" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="7" t="e">
+      <c r="O27" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="8">
         <f t="shared" si="13"/>
         <v>-0.17598520415421826</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="8">
         <f t="shared" ref="Q27:Q28" si="14">+Q7/P7-1</f>
         <v>6.5435082872928207E-2</v>
       </c>
@@ -1962,8 +1977,8 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="3"/>
@@ -1976,23 +1991,23 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="7" t="e">
+      <c r="M28" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="7" t="e">
+      <c r="N28" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="7" t="e">
+      <c r="O28" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <f t="shared" si="13"/>
         <v>-0.18959276018099547</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="8">
         <f t="shared" si="14"/>
         <v>8.7716359575656044E-2</v>
       </c>
@@ -2015,8 +2030,8 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="3"/>
@@ -2028,27 +2043,27 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="7" t="e">
-        <f t="shared" ref="L29:M29" si="15">+L10/L8</f>
+      <c r="L29" s="8" t="e">
+        <f t="shared" ref="L29" si="15">+L10/L8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="7" t="e">
-        <f t="shared" ref="M29:Q29" si="16">+M10/M8</f>
+      <c r="M29" s="8" t="e">
+        <f t="shared" ref="M29:P29" si="16">+M10/M8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="7" t="e">
+      <c r="N29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="8">
         <f t="shared" si="16"/>
         <v>0.5783936651583711</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="8">
         <f t="shared" si="16"/>
         <v>0.55697934115019543</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="8">
         <f>+Q10/Q8</f>
         <v>0.56213746727580716</v>
       </c>
@@ -2071,8 +2086,8 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="3"/>
@@ -2084,27 +2099,27 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="7" t="e">
-        <f t="shared" ref="L30:M30" si="17">+L14/L8</f>
+      <c r="L30" s="8" t="e">
+        <f t="shared" ref="L30" si="17">+L14/L8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="7" t="e">
-        <f t="shared" ref="M30:Q30" si="18">+M14/M8</f>
+      <c r="M30" s="8" t="e">
+        <f t="shared" ref="M30:P30" si="18">+M14/M8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="7" t="e">
+      <c r="N30" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="8">
         <f t="shared" si="18"/>
         <v>0.35882352941176471</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="8">
         <f t="shared" si="18"/>
         <v>0.21742043551088777</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="8">
         <f>+Q14/Q8</f>
         <v>0.25848262409527234</v>
       </c>
@@ -2127,8 +2142,8 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="3"/>
@@ -2140,27 +2155,27 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="7" t="e">
-        <f t="shared" ref="L31:Q31" si="19">+L18/L17</f>
+      <c r="L31" s="8" t="e">
+        <f t="shared" ref="L31:P31" si="19">+L18/L17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="7" t="e">
+      <c r="M31" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="7" t="e">
+      <c r="N31" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="8">
         <f t="shared" si="19"/>
         <v>0.13415122016268835</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="8">
         <f t="shared" si="19"/>
         <v>1.3972860405750369E-2</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="8">
         <f>+Q18/Q17</f>
         <v>2.186532507739938E-2</v>
       </c>
@@ -2183,7 +2198,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2218,7 +2233,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2253,7 +2268,7 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2288,7 +2303,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2323,7 +2338,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2358,7 +2373,7 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
     </row>
-    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2393,7 +2408,7 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2428,7 +2443,7 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
     </row>
-    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2463,7 +2478,7 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
     </row>
-    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2498,7 +2513,7 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
     </row>
-    <row r="41" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2533,7 +2548,7 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
     </row>
-    <row r="42" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2568,7 +2583,7 @@
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
     </row>
-    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2603,7 +2618,7 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
     </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2638,7 +2653,7 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
     </row>
-    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2673,7 +2688,7 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
     </row>
-    <row r="46" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2708,7 +2723,7 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
     </row>
-    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2743,7 +2758,7 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
     </row>
-    <row r="48" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2778,7 +2793,7 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2813,7 +2828,7 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2848,7 +2863,7 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2883,7 +2898,7 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2918,7 +2933,7 @@
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2953,7 +2968,7 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2988,7 +3003,7 @@
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3023,7 +3038,7 @@
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3058,7 +3073,7 @@
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3093,7 +3108,7 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3128,7 +3143,7 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3163,7 +3178,7 @@
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3198,7 +3213,7 @@
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3233,7 +3248,7 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3268,7 +3283,7 @@
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3303,7 +3318,7 @@
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3338,7 +3353,7 @@
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3373,7 +3388,7 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3408,7 +3423,7 @@
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3443,7 +3458,7 @@
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3478,7 +3493,7 @@
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3513,7 +3528,7 @@
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3548,7 +3563,7 @@
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3583,7 +3598,7 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3618,7 +3633,7 @@
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3653,7 +3668,7 @@
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3688,7 +3703,7 @@
       <c r="AH74" s="3"/>
       <c r="AI74" s="3"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3723,7 +3738,7 @@
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3758,7 +3773,7 @@
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3793,7 +3808,7 @@
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3828,7 +3843,7 @@
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3863,7 +3878,7 @@
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3898,7 +3913,7 @@
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
     </row>
-    <row r="81" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3933,7 +3948,7 @@
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3968,7 +3983,7 @@
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
     </row>
-    <row r="83" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4003,7 +4018,7 @@
       <c r="AH83" s="3"/>
       <c r="AI83" s="3"/>
     </row>
-    <row r="84" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4038,7 +4053,7 @@
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
     </row>
-    <row r="85" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4073,7 +4088,7 @@
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
     </row>
-    <row r="86" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4108,7 +4123,7 @@
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
     </row>
-    <row r="87" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4143,7 +4158,7 @@
       <c r="AH87" s="3"/>
       <c r="AI87" s="3"/>
     </row>
-    <row r="88" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4178,7 +4193,7 @@
       <c r="AH88" s="3"/>
       <c r="AI88" s="3"/>
     </row>
-    <row r="89" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4213,7 +4228,7 @@
       <c r="AH89" s="3"/>
       <c r="AI89" s="3"/>
     </row>
-    <row r="90" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4248,7 +4263,7 @@
       <c r="AH90" s="3"/>
       <c r="AI90" s="3"/>
     </row>
-    <row r="91" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4283,7 +4298,7 @@
       <c r="AH91" s="3"/>
       <c r="AI91" s="3"/>
     </row>
-    <row r="92" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4318,7 +4333,7 @@
       <c r="AH92" s="3"/>
       <c r="AI92" s="3"/>
     </row>
-    <row r="93" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4353,7 +4368,7 @@
       <c r="AH93" s="3"/>
       <c r="AI93" s="3"/>
     </row>
-    <row r="94" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4388,7 +4403,7 @@
       <c r="AH94" s="3"/>
       <c r="AI94" s="3"/>
     </row>
-    <row r="95" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4423,7 +4438,7 @@
       <c r="AH95" s="3"/>
       <c r="AI95" s="3"/>
     </row>
-    <row r="96" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4458,7 +4473,7 @@
       <c r="AH96" s="3"/>
       <c r="AI96" s="3"/>
     </row>
-    <row r="97" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4493,7 +4508,7 @@
       <c r="AH97" s="3"/>
       <c r="AI97" s="3"/>
     </row>
-    <row r="98" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4528,7 +4543,7 @@
       <c r="AH98" s="3"/>
       <c r="AI98" s="3"/>
     </row>
-    <row r="99" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4563,7 +4578,7 @@
       <c r="AH99" s="3"/>
       <c r="AI99" s="3"/>
     </row>
-    <row r="100" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4598,7 +4613,7 @@
       <c r="AH100" s="3"/>
       <c r="AI100" s="3"/>
     </row>
-    <row r="101" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4633,7 +4648,7 @@
       <c r="AH101" s="3"/>
       <c r="AI101" s="3"/>
     </row>
-    <row r="102" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4668,7 +4683,7 @@
       <c r="AH102" s="3"/>
       <c r="AI102" s="3"/>
     </row>
-    <row r="103" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4703,7 +4718,7 @@
       <c r="AH103" s="3"/>
       <c r="AI103" s="3"/>
     </row>
-    <row r="104" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4738,7 +4753,7 @@
       <c r="AH104" s="3"/>
       <c r="AI104" s="3"/>
     </row>
-    <row r="105" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4773,7 +4788,7 @@
       <c r="AH105" s="3"/>
       <c r="AI105" s="3"/>
     </row>
-    <row r="106" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4808,7 +4823,7 @@
       <c r="AH106" s="3"/>
       <c r="AI106" s="3"/>
     </row>
-    <row r="107" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4843,7 +4858,7 @@
       <c r="AH107" s="3"/>
       <c r="AI107" s="3"/>
     </row>
-    <row r="108" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4878,7 +4893,7 @@
       <c r="AH108" s="3"/>
       <c r="AI108" s="3"/>
     </row>
-    <row r="109" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4913,7 +4928,7 @@
       <c r="AH109" s="3"/>
       <c r="AI109" s="3"/>
     </row>
-    <row r="110" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4948,7 +4963,7 @@
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
     </row>
-    <row r="111" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4983,7 +4998,7 @@
       <c r="AH111" s="3"/>
       <c r="AI111" s="3"/>
     </row>
-    <row r="112" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5018,7 +5033,7 @@
       <c r="AH112" s="3"/>
       <c r="AI112" s="3"/>
     </row>
-    <row r="113" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5053,7 +5068,7 @@
       <c r="AH113" s="3"/>
       <c r="AI113" s="3"/>
     </row>
-    <row r="114" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5088,7 +5103,7 @@
       <c r="AH114" s="3"/>
       <c r="AI114" s="3"/>
     </row>
-    <row r="115" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5123,7 +5138,7 @@
       <c r="AH115" s="3"/>
       <c r="AI115" s="3"/>
     </row>
-    <row r="116" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5158,7 +5173,7 @@
       <c r="AH116" s="3"/>
       <c r="AI116" s="3"/>
     </row>
-    <row r="117" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5193,7 +5208,7 @@
       <c r="AH117" s="3"/>
       <c r="AI117" s="3"/>
     </row>
-    <row r="118" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5228,7 +5243,7 @@
       <c r="AH118" s="3"/>
       <c r="AI118" s="3"/>
     </row>
-    <row r="119" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5263,7 +5278,7 @@
       <c r="AH119" s="3"/>
       <c r="AI119" s="3"/>
     </row>
-    <row r="120" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5298,7 +5313,7 @@
       <c r="AH120" s="3"/>
       <c r="AI120" s="3"/>
     </row>
-    <row r="121" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5333,7 +5348,7 @@
       <c r="AH121" s="3"/>
       <c r="AI121" s="3"/>
     </row>
-    <row r="122" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5368,7 +5383,7 @@
       <c r="AH122" s="3"/>
       <c r="AI122" s="3"/>
     </row>
-    <row r="123" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5403,7 +5418,7 @@
       <c r="AH123" s="3"/>
       <c r="AI123" s="3"/>
     </row>
-    <row r="124" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5438,7 +5453,7 @@
       <c r="AH124" s="3"/>
       <c r="AI124" s="3"/>
     </row>
-    <row r="125" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5473,7 +5488,7 @@
       <c r="AH125" s="3"/>
       <c r="AI125" s="3"/>
     </row>
-    <row r="126" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5508,7 +5523,7 @@
       <c r="AH126" s="3"/>
       <c r="AI126" s="3"/>
     </row>
-    <row r="127" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5543,7 +5558,7 @@
       <c r="AH127" s="3"/>
       <c r="AI127" s="3"/>
     </row>
-    <row r="128" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5578,7 +5593,7 @@
       <c r="AH128" s="3"/>
       <c r="AI128" s="3"/>
     </row>
-    <row r="129" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5613,7 +5628,7 @@
       <c r="AH129" s="3"/>
       <c r="AI129" s="3"/>
     </row>
-    <row r="130" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5648,7 +5663,7 @@
       <c r="AH130" s="3"/>
       <c r="AI130" s="3"/>
     </row>
-    <row r="131" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5683,7 +5698,7 @@
       <c r="AH131" s="3"/>
       <c r="AI131" s="3"/>
     </row>
-    <row r="132" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5718,7 +5733,7 @@
       <c r="AH132" s="3"/>
       <c r="AI132" s="3"/>
     </row>
-    <row r="133" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5753,7 +5768,7 @@
       <c r="AH133" s="3"/>
       <c r="AI133" s="3"/>
     </row>
-    <row r="134" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5788,7 +5803,7 @@
       <c r="AH134" s="3"/>
       <c r="AI134" s="3"/>
     </row>
-    <row r="135" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5823,7 +5838,7 @@
       <c r="AH135" s="3"/>
       <c r="AI135" s="3"/>
     </row>
-    <row r="136" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5858,7 +5873,7 @@
       <c r="AH136" s="3"/>
       <c r="AI136" s="3"/>
     </row>
-    <row r="137" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5893,7 +5908,7 @@
       <c r="AH137" s="3"/>
       <c r="AI137" s="3"/>
     </row>
-    <row r="138" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5928,7 +5943,7 @@
       <c r="AH138" s="3"/>
       <c r="AI138" s="3"/>
     </row>
-    <row r="139" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5963,7 +5978,7 @@
       <c r="AH139" s="3"/>
       <c r="AI139" s="3"/>
     </row>
-    <row r="140" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5998,7 +6013,7 @@
       <c r="AH140" s="3"/>
       <c r="AI140" s="3"/>
     </row>
-    <row r="141" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6033,7 +6048,7 @@
       <c r="AH141" s="3"/>
       <c r="AI141" s="3"/>
     </row>
-    <row r="142" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6068,7 +6083,7 @@
       <c r="AH142" s="3"/>
       <c r="AI142" s="3"/>
     </row>
-    <row r="143" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6103,7 +6118,7 @@
       <c r="AH143" s="3"/>
       <c r="AI143" s="3"/>
     </row>
-    <row r="144" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6138,7 +6153,7 @@
       <c r="AH144" s="3"/>
       <c r="AI144" s="3"/>
     </row>
-    <row r="145" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6173,7 +6188,7 @@
       <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
     </row>
-    <row r="146" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6208,7 +6223,7 @@
       <c r="AH146" s="3"/>
       <c r="AI146" s="3"/>
     </row>
-    <row r="147" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6243,7 +6258,7 @@
       <c r="AH147" s="3"/>
       <c r="AI147" s="3"/>
     </row>
-    <row r="148" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6278,7 +6293,7 @@
       <c r="AH148" s="3"/>
       <c r="AI148" s="3"/>
     </row>
-    <row r="149" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6313,7 +6328,7 @@
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
     </row>
-    <row r="150" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6348,7 +6363,7 @@
       <c r="AH150" s="3"/>
       <c r="AI150" s="3"/>
     </row>
-    <row r="151" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6383,7 +6398,7 @@
       <c r="AH151" s="3"/>
       <c r="AI151" s="3"/>
     </row>
-    <row r="152" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6418,7 +6433,7 @@
       <c r="AH152" s="3"/>
       <c r="AI152" s="3"/>
     </row>
-    <row r="153" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6453,7 +6468,7 @@
       <c r="AH153" s="3"/>
       <c r="AI153" s="3"/>
     </row>
-    <row r="154" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6488,7 +6503,7 @@
       <c r="AH154" s="3"/>
       <c r="AI154" s="3"/>
     </row>
-    <row r="155" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6523,7 +6538,7 @@
       <c r="AH155" s="3"/>
       <c r="AI155" s="3"/>
     </row>
-    <row r="156" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6558,7 +6573,7 @@
       <c r="AH156" s="3"/>
       <c r="AI156" s="3"/>
     </row>
-    <row r="157" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6593,7 +6608,7 @@
       <c r="AH157" s="3"/>
       <c r="AI157" s="3"/>
     </row>
-    <row r="158" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6628,7 +6643,7 @@
       <c r="AH158" s="3"/>
       <c r="AI158" s="3"/>
     </row>
-    <row r="159" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6663,7 +6678,7 @@
       <c r="AH159" s="3"/>
       <c r="AI159" s="3"/>
     </row>
-    <row r="160" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6698,7 +6713,7 @@
       <c r="AH160" s="3"/>
       <c r="AI160" s="3"/>
     </row>
-    <row r="161" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6733,7 +6748,7 @@
       <c r="AH161" s="3"/>
       <c r="AI161" s="3"/>
     </row>
-    <row r="162" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6768,7 +6783,7 @@
       <c r="AH162" s="3"/>
       <c r="AI162" s="3"/>
     </row>
-    <row r="163" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6803,7 +6818,7 @@
       <c r="AH163" s="3"/>
       <c r="AI163" s="3"/>
     </row>
-    <row r="164" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6838,7 +6853,7 @@
       <c r="AH164" s="3"/>
       <c r="AI164" s="3"/>
     </row>
-    <row r="165" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6873,7 +6888,7 @@
       <c r="AH165" s="3"/>
       <c r="AI165" s="3"/>
     </row>
-    <row r="166" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6908,7 +6923,7 @@
       <c r="AH166" s="3"/>
       <c r="AI166" s="3"/>
     </row>
-    <row r="167" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6943,7 +6958,7 @@
       <c r="AH167" s="3"/>
       <c r="AI167" s="3"/>
     </row>
-    <row r="168" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6978,7 +6993,7 @@
       <c r="AH168" s="3"/>
       <c r="AI168" s="3"/>
     </row>
-    <row r="169" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7013,7 +7028,7 @@
       <c r="AH169" s="3"/>
       <c r="AI169" s="3"/>
     </row>
-    <row r="170" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7048,7 +7063,7 @@
       <c r="AH170" s="3"/>
       <c r="AI170" s="3"/>
     </row>
-    <row r="171" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7083,7 +7098,7 @@
       <c r="AH171" s="3"/>
       <c r="AI171" s="3"/>
     </row>
-    <row r="172" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7118,7 +7133,7 @@
       <c r="AH172" s="3"/>
       <c r="AI172" s="3"/>
     </row>
-    <row r="173" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7153,7 +7168,7 @@
       <c r="AH173" s="3"/>
       <c r="AI173" s="3"/>
     </row>
-    <row r="174" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7188,7 +7203,7 @@
       <c r="AH174" s="3"/>
       <c r="AI174" s="3"/>
     </row>
-    <row r="175" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7223,7 +7238,7 @@
       <c r="AH175" s="3"/>
       <c r="AI175" s="3"/>
     </row>
-    <row r="176" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7258,7 +7273,7 @@
       <c r="AH176" s="3"/>
       <c r="AI176" s="3"/>
     </row>
-    <row r="177" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7293,7 +7308,7 @@
       <c r="AH177" s="3"/>
       <c r="AI177" s="3"/>
     </row>
-    <row r="178" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7328,7 +7343,7 @@
       <c r="AH178" s="3"/>
       <c r="AI178" s="3"/>
     </row>
-    <row r="179" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7363,7 +7378,7 @@
       <c r="AH179" s="3"/>
       <c r="AI179" s="3"/>
     </row>
-    <row r="180" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7398,7 +7413,7 @@
       <c r="AH180" s="3"/>
       <c r="AI180" s="3"/>
     </row>
-    <row r="181" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7433,7 +7448,7 @@
       <c r="AH181" s="3"/>
       <c r="AI181" s="3"/>
     </row>
-    <row r="182" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7468,7 +7483,7 @@
       <c r="AH182" s="3"/>
       <c r="AI182" s="3"/>
     </row>
-    <row r="183" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7503,7 +7518,7 @@
       <c r="AH183" s="3"/>
       <c r="AI183" s="3"/>
     </row>
-    <row r="184" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7538,7 +7553,7 @@
       <c r="AH184" s="3"/>
       <c r="AI184" s="3"/>
     </row>
-    <row r="185" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7573,7 +7588,7 @@
       <c r="AH185" s="3"/>
       <c r="AI185" s="3"/>
     </row>
-    <row r="186" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7608,7 +7623,7 @@
       <c r="AH186" s="3"/>
       <c r="AI186" s="3"/>
     </row>
-    <row r="187" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7643,7 +7658,7 @@
       <c r="AH187" s="3"/>
       <c r="AI187" s="3"/>
     </row>
-    <row r="188" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7678,7 +7693,7 @@
       <c r="AH188" s="3"/>
       <c r="AI188" s="3"/>
     </row>
-    <row r="189" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7713,7 +7728,7 @@
       <c r="AH189" s="3"/>
       <c r="AI189" s="3"/>
     </row>
-    <row r="190" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7748,7 +7763,7 @@
       <c r="AH190" s="3"/>
       <c r="AI190" s="3"/>
     </row>
-    <row r="191" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7783,7 +7798,7 @@
       <c r="AH191" s="3"/>
       <c r="AI191" s="3"/>
     </row>
-    <row r="192" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7818,7 +7833,7 @@
       <c r="AH192" s="3"/>
       <c r="AI192" s="3"/>
     </row>
-    <row r="193" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7853,7 +7868,7 @@
       <c r="AH193" s="3"/>
       <c r="AI193" s="3"/>
     </row>
-    <row r="194" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -7888,7 +7903,7 @@
       <c r="AH194" s="3"/>
       <c r="AI194" s="3"/>
     </row>
-    <row r="195" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -7923,7 +7938,7 @@
       <c r="AH195" s="3"/>
       <c r="AI195" s="3"/>
     </row>
-    <row r="196" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -7958,7 +7973,7 @@
       <c r="AH196" s="3"/>
       <c r="AI196" s="3"/>
     </row>
-    <row r="197" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -7993,7 +8008,7 @@
       <c r="AH197" s="3"/>
       <c r="AI197" s="3"/>
     </row>
-    <row r="198" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8028,7 +8043,7 @@
       <c r="AH198" s="3"/>
       <c r="AI198" s="3"/>
     </row>
-    <row r="199" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8063,7 +8078,7 @@
       <c r="AH199" s="3"/>
       <c r="AI199" s="3"/>
     </row>
-    <row r="200" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8098,7 +8113,7 @@
       <c r="AH200" s="3"/>
       <c r="AI200" s="3"/>
     </row>
-    <row r="201" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8133,7 +8148,7 @@
       <c r="AH201" s="3"/>
       <c r="AI201" s="3"/>
     </row>
-    <row r="202" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8168,7 +8183,7 @@
       <c r="AH202" s="3"/>
       <c r="AI202" s="3"/>
     </row>
-    <row r="203" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8203,7 +8218,7 @@
       <c r="AH203" s="3"/>
       <c r="AI203" s="3"/>
     </row>
-    <row r="204" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8238,7 +8253,7 @@
       <c r="AH204" s="3"/>
       <c r="AI204" s="3"/>
     </row>
-    <row r="205" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8273,7 +8288,7 @@
       <c r="AH205" s="3"/>
       <c r="AI205" s="3"/>
     </row>
-    <row r="206" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8308,7 +8323,7 @@
       <c r="AH206" s="3"/>
       <c r="AI206" s="3"/>
     </row>
-    <row r="207" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8343,7 +8358,7 @@
       <c r="AH207" s="3"/>
       <c r="AI207" s="3"/>
     </row>
-    <row r="208" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8378,7 +8393,7 @@
       <c r="AH208" s="3"/>
       <c r="AI208" s="3"/>
     </row>
-    <row r="209" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8413,7 +8428,7 @@
       <c r="AH209" s="3"/>
       <c r="AI209" s="3"/>
     </row>
-    <row r="210" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8448,7 +8463,7 @@
       <c r="AH210" s="3"/>
       <c r="AI210" s="3"/>
     </row>
-    <row r="211" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -8483,7 +8498,7 @@
       <c r="AH211" s="3"/>
       <c r="AI211" s="3"/>
     </row>
-    <row r="212" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -8518,7 +8533,7 @@
       <c r="AH212" s="3"/>
       <c r="AI212" s="3"/>
     </row>
-    <row r="213" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -8553,7 +8568,7 @@
       <c r="AH213" s="3"/>
       <c r="AI213" s="3"/>
     </row>
-    <row r="214" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -8588,7 +8603,7 @@
       <c r="AH214" s="3"/>
       <c r="AI214" s="3"/>
     </row>
-    <row r="215" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -8623,7 +8638,7 @@
       <c r="AH215" s="3"/>
       <c r="AI215" s="3"/>
     </row>
-    <row r="216" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -8658,7 +8673,7 @@
       <c r="AH216" s="3"/>
       <c r="AI216" s="3"/>
     </row>
-    <row r="217" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -8693,7 +8708,7 @@
       <c r="AH217" s="3"/>
       <c r="AI217" s="3"/>
     </row>
-    <row r="218" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -8728,7 +8743,7 @@
       <c r="AH218" s="3"/>
       <c r="AI218" s="3"/>
     </row>
-    <row r="219" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -8763,7 +8778,7 @@
       <c r="AH219" s="3"/>
       <c r="AI219" s="3"/>
     </row>
-    <row r="220" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8798,7 +8813,7 @@
       <c r="AH220" s="3"/>
       <c r="AI220" s="3"/>
     </row>
-    <row r="221" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8833,7 +8848,7 @@
       <c r="AH221" s="3"/>
       <c r="AI221" s="3"/>
     </row>
-    <row r="222" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -8868,7 +8883,7 @@
       <c r="AH222" s="3"/>
       <c r="AI222" s="3"/>
     </row>
-    <row r="223" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -8903,7 +8918,7 @@
       <c r="AH223" s="3"/>
       <c r="AI223" s="3"/>
     </row>
-    <row r="224" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -8938,7 +8953,7 @@
       <c r="AH224" s="3"/>
       <c r="AI224" s="3"/>
     </row>
-    <row r="225" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -8973,7 +8988,7 @@
       <c r="AH225" s="3"/>
       <c r="AI225" s="3"/>
     </row>
-    <row r="226" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9008,7 +9023,7 @@
       <c r="AH226" s="3"/>
       <c r="AI226" s="3"/>
     </row>
-    <row r="227" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9043,7 +9058,7 @@
       <c r="AH227" s="3"/>
       <c r="AI227" s="3"/>
     </row>
-    <row r="228" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9078,7 +9093,7 @@
       <c r="AH228" s="3"/>
       <c r="AI228" s="3"/>
     </row>
-    <row r="229" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9113,7 +9128,7 @@
       <c r="AH229" s="3"/>
       <c r="AI229" s="3"/>
     </row>
-    <row r="230" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9148,7 +9163,7 @@
       <c r="AH230" s="3"/>
       <c r="AI230" s="3"/>
     </row>
-    <row r="231" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9183,7 +9198,7 @@
       <c r="AH231" s="3"/>
       <c r="AI231" s="3"/>
     </row>
-    <row r="232" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9218,7 +9233,7 @@
       <c r="AH232" s="3"/>
       <c r="AI232" s="3"/>
     </row>
-    <row r="233" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9253,7 +9268,7 @@
       <c r="AH233" s="3"/>
       <c r="AI233" s="3"/>
     </row>
-    <row r="234" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9288,7 +9303,7 @@
       <c r="AH234" s="3"/>
       <c r="AI234" s="3"/>
     </row>
-    <row r="235" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -9323,7 +9338,7 @@
       <c r="AH235" s="3"/>
       <c r="AI235" s="3"/>
     </row>
-    <row r="236" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9358,7 +9373,7 @@
       <c r="AH236" s="3"/>
       <c r="AI236" s="3"/>
     </row>
-    <row r="237" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -9393,7 +9408,7 @@
       <c r="AH237" s="3"/>
       <c r="AI237" s="3"/>
     </row>
-    <row r="238" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9428,7 +9443,7 @@
       <c r="AH238" s="3"/>
       <c r="AI238" s="3"/>
     </row>
-    <row r="239" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9463,7 +9478,7 @@
       <c r="AH239" s="3"/>
       <c r="AI239" s="3"/>
     </row>
-    <row r="240" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -9498,7 +9513,7 @@
       <c r="AH240" s="3"/>
       <c r="AI240" s="3"/>
     </row>
-    <row r="241" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9533,7 +9548,7 @@
       <c r="AH241" s="3"/>
       <c r="AI241" s="3"/>
     </row>
-    <row r="242" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -9568,7 +9583,7 @@
       <c r="AH242" s="3"/>
       <c r="AI242" s="3"/>
     </row>
-    <row r="243" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -9603,7 +9618,7 @@
       <c r="AH243" s="3"/>
       <c r="AI243" s="3"/>
     </row>
-    <row r="244" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -9638,7 +9653,7 @@
       <c r="AH244" s="3"/>
       <c r="AI244" s="3"/>
     </row>
-    <row r="245" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -9673,7 +9688,7 @@
       <c r="AH245" s="3"/>
       <c r="AI245" s="3"/>
     </row>
-    <row r="246" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -9708,7 +9723,7 @@
       <c r="AH246" s="3"/>
       <c r="AI246" s="3"/>
     </row>
-    <row r="247" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -9743,7 +9758,7 @@
       <c r="AH247" s="3"/>
       <c r="AI247" s="3"/>
     </row>
-    <row r="248" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -9778,7 +9793,7 @@
       <c r="AH248" s="3"/>
       <c r="AI248" s="3"/>
     </row>
-    <row r="249" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -9813,7 +9828,7 @@
       <c r="AH249" s="3"/>
       <c r="AI249" s="3"/>
     </row>
-    <row r="250" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -9848,7 +9863,7 @@
       <c r="AH250" s="3"/>
       <c r="AI250" s="3"/>
     </row>
-    <row r="251" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -9883,7 +9898,7 @@
       <c r="AH251" s="3"/>
       <c r="AI251" s="3"/>
     </row>
-    <row r="252" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -9918,7 +9933,7 @@
       <c r="AH252" s="3"/>
       <c r="AI252" s="3"/>
     </row>
-    <row r="253" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -9953,7 +9968,7 @@
       <c r="AH253" s="3"/>
       <c r="AI253" s="3"/>
     </row>
-    <row r="254" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -9988,7 +10003,7 @@
       <c r="AH254" s="3"/>
       <c r="AI254" s="3"/>
     </row>
-    <row r="255" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -10023,7 +10038,7 @@
       <c r="AH255" s="3"/>
       <c r="AI255" s="3"/>
     </row>
-    <row r="256" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10058,7 +10073,7 @@
       <c r="AH256" s="3"/>
       <c r="AI256" s="3"/>
     </row>
-    <row r="257" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10093,7 +10108,7 @@
       <c r="AH257" s="3"/>
       <c r="AI257" s="3"/>
     </row>
-    <row r="258" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10128,7 +10143,7 @@
       <c r="AH258" s="3"/>
       <c r="AI258" s="3"/>
     </row>
-    <row r="259" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10163,7 +10178,7 @@
       <c r="AH259" s="3"/>
       <c r="AI259" s="3"/>
     </row>
-    <row r="260" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -10198,7 +10213,7 @@
       <c r="AH260" s="3"/>
       <c r="AI260" s="3"/>
     </row>
-    <row r="261" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -10233,7 +10248,7 @@
       <c r="AH261" s="3"/>
       <c r="AI261" s="3"/>
     </row>
-    <row r="262" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -10268,7 +10283,7 @@
       <c r="AH262" s="3"/>
       <c r="AI262" s="3"/>
     </row>
-    <row r="263" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10303,7 +10318,7 @@
       <c r="AH263" s="3"/>
       <c r="AI263" s="3"/>
     </row>
-    <row r="264" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10338,7 +10353,7 @@
       <c r="AH264" s="3"/>
       <c r="AI264" s="3"/>
     </row>
-    <row r="265" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10373,7 +10388,7 @@
       <c r="AH265" s="3"/>
       <c r="AI265" s="3"/>
     </row>
-    <row r="266" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -10408,7 +10423,7 @@
       <c r="AH266" s="3"/>
       <c r="AI266" s="3"/>
     </row>
-    <row r="267" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10443,7 +10458,7 @@
       <c r="AH267" s="3"/>
       <c r="AI267" s="3"/>
     </row>
-    <row r="268" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10478,7 +10493,7 @@
       <c r="AH268" s="3"/>
       <c r="AI268" s="3"/>
     </row>
-    <row r="269" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10513,7 +10528,7 @@
       <c r="AH269" s="3"/>
       <c r="AI269" s="3"/>
     </row>
-    <row r="270" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -10548,7 +10563,7 @@
       <c r="AH270" s="3"/>
       <c r="AI270" s="3"/>
     </row>
-    <row r="271" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10583,7 +10598,7 @@
       <c r="AH271" s="3"/>
       <c r="AI271" s="3"/>
     </row>
-    <row r="272" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10618,7 +10633,7 @@
       <c r="AH272" s="3"/>
       <c r="AI272" s="3"/>
     </row>
-    <row r="273" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10653,7 +10668,7 @@
       <c r="AH273" s="3"/>
       <c r="AI273" s="3"/>
     </row>
-    <row r="274" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10688,7 +10703,7 @@
       <c r="AH274" s="3"/>
       <c r="AI274" s="3"/>
     </row>
-    <row r="275" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -10723,7 +10738,7 @@
       <c r="AH275" s="3"/>
       <c r="AI275" s="3"/>
     </row>
-    <row r="276" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -10758,7 +10773,7 @@
       <c r="AH276" s="3"/>
       <c r="AI276" s="3"/>
     </row>
-    <row r="277" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10793,7 +10808,7 @@
       <c r="AH277" s="3"/>
       <c r="AI277" s="3"/>
     </row>
-    <row r="278" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -10828,7 +10843,7 @@
       <c r="AH278" s="3"/>
       <c r="AI278" s="3"/>
     </row>
-    <row r="279" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -10863,7 +10878,7 @@
       <c r="AH279" s="3"/>
       <c r="AI279" s="3"/>
     </row>
-    <row r="280" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -10898,7 +10913,7 @@
       <c r="AH280" s="3"/>
       <c r="AI280" s="3"/>
     </row>
-    <row r="281" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -10933,7 +10948,7 @@
       <c r="AH281" s="3"/>
       <c r="AI281" s="3"/>
     </row>
-    <row r="282" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -10968,7 +10983,7 @@
       <c r="AH282" s="3"/>
       <c r="AI282" s="3"/>
     </row>
-    <row r="283" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -11003,7 +11018,7 @@
       <c r="AH283" s="3"/>
       <c r="AI283" s="3"/>
     </row>
-    <row r="284" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -11038,7 +11053,7 @@
       <c r="AH284" s="3"/>
       <c r="AI284" s="3"/>
     </row>
-    <row r="285" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11073,7 +11088,7 @@
       <c r="AH285" s="3"/>
       <c r="AI285" s="3"/>
     </row>
-    <row r="286" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11108,7 +11123,7 @@
       <c r="AH286" s="3"/>
       <c r="AI286" s="3"/>
     </row>
-    <row r="287" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -11143,7 +11158,7 @@
       <c r="AH287" s="3"/>
       <c r="AI287" s="3"/>
     </row>
-    <row r="288" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -11178,7 +11193,7 @@
       <c r="AH288" s="3"/>
       <c r="AI288" s="3"/>
     </row>
-    <row r="289" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11213,7 +11228,7 @@
       <c r="AH289" s="3"/>
       <c r="AI289" s="3"/>
     </row>
-    <row r="290" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11248,7 +11263,7 @@
       <c r="AH290" s="3"/>
       <c r="AI290" s="3"/>
     </row>
-    <row r="291" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11283,7 +11298,7 @@
       <c r="AH291" s="3"/>
       <c r="AI291" s="3"/>
     </row>
-    <row r="292" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -11318,7 +11333,7 @@
       <c r="AH292" s="3"/>
       <c r="AI292" s="3"/>
     </row>
-    <row r="293" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -11353,7 +11368,7 @@
       <c r="AH293" s="3"/>
       <c r="AI293" s="3"/>
     </row>
-    <row r="294" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -11388,7 +11403,7 @@
       <c r="AH294" s="3"/>
       <c r="AI294" s="3"/>
     </row>
-    <row r="295" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -11423,7 +11438,7 @@
       <c r="AH295" s="3"/>
       <c r="AI295" s="3"/>
     </row>
-    <row r="296" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -11458,7 +11473,7 @@
       <c r="AH296" s="3"/>
       <c r="AI296" s="3"/>
     </row>
-    <row r="297" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -11493,7 +11508,7 @@
       <c r="AH297" s="3"/>
       <c r="AI297" s="3"/>
     </row>
-    <row r="298" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11528,7 +11543,7 @@
       <c r="AH298" s="3"/>
       <c r="AI298" s="3"/>
     </row>
-    <row r="299" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -11563,7 +11578,7 @@
       <c r="AH299" s="3"/>
       <c r="AI299" s="3"/>
     </row>
-    <row r="300" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -11598,7 +11613,7 @@
       <c r="AH300" s="3"/>
       <c r="AI300" s="3"/>
     </row>
-    <row r="301" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -11633,7 +11648,7 @@
       <c r="AH301" s="3"/>
       <c r="AI301" s="3"/>
     </row>
-    <row r="302" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -11668,7 +11683,7 @@
       <c r="AH302" s="3"/>
       <c r="AI302" s="3"/>
     </row>
-    <row r="303" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -11703,7 +11718,7 @@
       <c r="AH303" s="3"/>
       <c r="AI303" s="3"/>
     </row>
-    <row r="304" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -11738,7 +11753,7 @@
       <c r="AH304" s="3"/>
       <c r="AI304" s="3"/>
     </row>
-    <row r="305" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -11773,7 +11788,7 @@
       <c r="AH305" s="3"/>
       <c r="AI305" s="3"/>
     </row>
-    <row r="306" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -11808,7 +11823,7 @@
       <c r="AH306" s="3"/>
       <c r="AI306" s="3"/>
     </row>
-    <row r="307" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -11843,7 +11858,7 @@
       <c r="AH307" s="3"/>
       <c r="AI307" s="3"/>
     </row>
-    <row r="308" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -11878,7 +11893,7 @@
       <c r="AH308" s="3"/>
       <c r="AI308" s="3"/>
     </row>
-    <row r="309" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -11913,7 +11928,7 @@
       <c r="AH309" s="3"/>
       <c r="AI309" s="3"/>
     </row>
-    <row r="310" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -11948,7 +11963,7 @@
       <c r="AH310" s="3"/>
       <c r="AI310" s="3"/>
     </row>
-    <row r="311" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -11983,7 +11998,7 @@
       <c r="AH311" s="3"/>
       <c r="AI311" s="3"/>
     </row>
-    <row r="312" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -12018,7 +12033,7 @@
       <c r="AH312" s="3"/>
       <c r="AI312" s="3"/>
     </row>
-    <row r="313" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -12053,7 +12068,7 @@
       <c r="AH313" s="3"/>
       <c r="AI313" s="3"/>
     </row>
-    <row r="314" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -12088,7 +12103,7 @@
       <c r="AH314" s="3"/>
       <c r="AI314" s="3"/>
     </row>
-    <row r="315" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -12123,7 +12138,7 @@
       <c r="AH315" s="3"/>
       <c r="AI315" s="3"/>
     </row>
-    <row r="316" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -12158,7 +12173,7 @@
       <c r="AH316" s="3"/>
       <c r="AI316" s="3"/>
     </row>
-    <row r="317" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -12193,7 +12208,7 @@
       <c r="AH317" s="3"/>
       <c r="AI317" s="3"/>
     </row>
-    <row r="318" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -12228,7 +12243,7 @@
       <c r="AH318" s="3"/>
       <c r="AI318" s="3"/>
     </row>
-    <row r="319" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -12263,7 +12278,7 @@
       <c r="AH319" s="3"/>
       <c r="AI319" s="3"/>
     </row>
-    <row r="320" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -12298,7 +12313,7 @@
       <c r="AH320" s="3"/>
       <c r="AI320" s="3"/>
     </row>
-    <row r="321" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -12333,7 +12348,7 @@
       <c r="AH321" s="3"/>
       <c r="AI321" s="3"/>
     </row>
-    <row r="322" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -12368,7 +12383,7 @@
       <c r="AH322" s="3"/>
       <c r="AI322" s="3"/>
     </row>
-    <row r="323" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -12403,7 +12418,7 @@
       <c r="AH323" s="3"/>
       <c r="AI323" s="3"/>
     </row>
-    <row r="324" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -12438,7 +12453,7 @@
       <c r="AH324" s="3"/>
       <c r="AI324" s="3"/>
     </row>
-    <row r="325" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -12473,7 +12488,7 @@
       <c r="AH325" s="3"/>
       <c r="AI325" s="3"/>
     </row>
-    <row r="326" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -12508,7 +12523,7 @@
       <c r="AH326" s="3"/>
       <c r="AI326" s="3"/>
     </row>
-    <row r="327" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -12543,7 +12558,7 @@
       <c r="AH327" s="3"/>
       <c r="AI327" s="3"/>
     </row>
-    <row r="328" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -12578,7 +12593,7 @@
       <c r="AH328" s="3"/>
       <c r="AI328" s="3"/>
     </row>
-    <row r="329" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -12613,7 +12628,7 @@
       <c r="AH329" s="3"/>
       <c r="AI329" s="3"/>
     </row>
-    <row r="330" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -12648,7 +12663,7 @@
       <c r="AH330" s="3"/>
       <c r="AI330" s="3"/>
     </row>
-    <row r="331" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -12683,7 +12698,7 @@
       <c r="AH331" s="3"/>
       <c r="AI331" s="3"/>
     </row>
-    <row r="332" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -12718,7 +12733,7 @@
       <c r="AH332" s="3"/>
       <c r="AI332" s="3"/>
     </row>
-    <row r="333" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -12753,7 +12768,7 @@
       <c r="AH333" s="3"/>
       <c r="AI333" s="3"/>
     </row>
-    <row r="334" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -12788,7 +12803,7 @@
       <c r="AH334" s="3"/>
       <c r="AI334" s="3"/>
     </row>
-    <row r="335" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -12823,7 +12838,7 @@
       <c r="AH335" s="3"/>
       <c r="AI335" s="3"/>
     </row>
-    <row r="336" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -12858,7 +12873,7 @@
       <c r="AH336" s="3"/>
       <c r="AI336" s="3"/>
     </row>
-    <row r="337" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -12893,7 +12908,7 @@
       <c r="AH337" s="3"/>
       <c r="AI337" s="3"/>
     </row>
-    <row r="338" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -12928,7 +12943,7 @@
       <c r="AH338" s="3"/>
       <c r="AI338" s="3"/>
     </row>
-    <row r="339" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -12963,7 +12978,7 @@
       <c r="AH339" s="3"/>
       <c r="AI339" s="3"/>
     </row>
-    <row r="340" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -12998,7 +13013,7 @@
       <c r="AH340" s="3"/>
       <c r="AI340" s="3"/>
     </row>
-    <row r="341" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -13033,7 +13048,7 @@
       <c r="AH341" s="3"/>
       <c r="AI341" s="3"/>
     </row>
-    <row r="342" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -13068,7 +13083,7 @@
       <c r="AH342" s="3"/>
       <c r="AI342" s="3"/>
     </row>
-    <row r="343" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -13103,7 +13118,7 @@
       <c r="AH343" s="3"/>
       <c r="AI343" s="3"/>
     </row>
-    <row r="344" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -13138,7 +13153,7 @@
       <c r="AH344" s="3"/>
       <c r="AI344" s="3"/>
     </row>
-    <row r="345" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -13173,7 +13188,7 @@
       <c r="AH345" s="3"/>
       <c r="AI345" s="3"/>
     </row>
-    <row r="346" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -13208,7 +13223,7 @@
       <c r="AH346" s="3"/>
       <c r="AI346" s="3"/>
     </row>
-    <row r="347" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -13243,7 +13258,7 @@
       <c r="AH347" s="3"/>
       <c r="AI347" s="3"/>
     </row>
-    <row r="348" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -13278,7 +13293,7 @@
       <c r="AH348" s="3"/>
       <c r="AI348" s="3"/>
     </row>
-    <row r="349" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -13313,7 +13328,7 @@
       <c r="AH349" s="3"/>
       <c r="AI349" s="3"/>
     </row>
-    <row r="350" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -13348,7 +13363,7 @@
       <c r="AH350" s="3"/>
       <c r="AI350" s="3"/>
     </row>
-    <row r="351" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -13383,7 +13398,7 @@
       <c r="AH351" s="3"/>
       <c r="AI351" s="3"/>
     </row>
-    <row r="352" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -13418,7 +13433,7 @@
       <c r="AH352" s="3"/>
       <c r="AI352" s="3"/>
     </row>
-    <row r="353" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -13453,7 +13468,7 @@
       <c r="AH353" s="3"/>
       <c r="AI353" s="3"/>
     </row>
-    <row r="354" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -13488,7 +13503,7 @@
       <c r="AH354" s="3"/>
       <c r="AI354" s="3"/>
     </row>
-    <row r="355" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -13523,7 +13538,7 @@
       <c r="AH355" s="3"/>
       <c r="AI355" s="3"/>
     </row>
-    <row r="356" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -13558,7 +13573,7 @@
       <c r="AH356" s="3"/>
       <c r="AI356" s="3"/>
     </row>
-    <row r="357" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -13593,7 +13608,7 @@
       <c r="AH357" s="3"/>
       <c r="AI357" s="3"/>
     </row>
-    <row r="358" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -13628,7 +13643,7 @@
       <c r="AH358" s="3"/>
       <c r="AI358" s="3"/>
     </row>
-    <row r="359" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -13663,7 +13678,7 @@
       <c r="AH359" s="3"/>
       <c r="AI359" s="3"/>
     </row>
-    <row r="360" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -13698,7 +13713,7 @@
       <c r="AH360" s="3"/>
       <c r="AI360" s="3"/>
     </row>
-    <row r="361" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -13733,7 +13748,7 @@
       <c r="AH361" s="3"/>
       <c r="AI361" s="3"/>
     </row>
-    <row r="362" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -13768,7 +13783,7 @@
       <c r="AH362" s="3"/>
       <c r="AI362" s="3"/>
     </row>
-    <row r="363" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -13803,7 +13818,7 @@
       <c r="AH363" s="3"/>
       <c r="AI363" s="3"/>
     </row>
-    <row r="364" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -13838,7 +13853,7 @@
       <c r="AH364" s="3"/>
       <c r="AI364" s="3"/>
     </row>
-    <row r="365" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -13873,7 +13888,7 @@
       <c r="AH365" s="3"/>
       <c r="AI365" s="3"/>
     </row>
-    <row r="366" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -13908,7 +13923,7 @@
       <c r="AH366" s="3"/>
       <c r="AI366" s="3"/>
     </row>
-    <row r="367" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -13943,7 +13958,7 @@
       <c r="AH367" s="3"/>
       <c r="AI367" s="3"/>
     </row>
-    <row r="368" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -13978,7 +13993,7 @@
       <c r="AH368" s="3"/>
       <c r="AI368" s="3"/>
     </row>
-    <row r="369" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -14013,7 +14028,7 @@
       <c r="AH369" s="3"/>
       <c r="AI369" s="3"/>
     </row>
-    <row r="370" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -14048,7 +14063,7 @@
       <c r="AH370" s="3"/>
       <c r="AI370" s="3"/>
     </row>
-    <row r="371" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -14083,7 +14098,7 @@
       <c r="AH371" s="3"/>
       <c r="AI371" s="3"/>
     </row>
-    <row r="372" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -14118,7 +14133,7 @@
       <c r="AH372" s="3"/>
       <c r="AI372" s="3"/>
     </row>
-    <row r="373" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -14153,7 +14168,7 @@
       <c r="AH373" s="3"/>
       <c r="AI373" s="3"/>
     </row>
-    <row r="374" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -14188,7 +14203,7 @@
       <c r="AH374" s="3"/>
       <c r="AI374" s="3"/>
     </row>
-    <row r="375" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -14223,7 +14238,7 @@
       <c r="AH375" s="3"/>
       <c r="AI375" s="3"/>
     </row>
-    <row r="376" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -14258,7 +14273,7 @@
       <c r="AH376" s="3"/>
       <c r="AI376" s="3"/>
     </row>
-    <row r="377" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -14293,7 +14308,7 @@
       <c r="AH377" s="3"/>
       <c r="AI377" s="3"/>
     </row>
-    <row r="378" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -14328,7 +14343,7 @@
       <c r="AH378" s="3"/>
       <c r="AI378" s="3"/>
     </row>
-    <row r="379" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -14363,7 +14378,7 @@
       <c r="AH379" s="3"/>
       <c r="AI379" s="3"/>
     </row>
-    <row r="380" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -14398,7 +14413,7 @@
       <c r="AH380" s="3"/>
       <c r="AI380" s="3"/>
     </row>
-    <row r="381" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -14433,7 +14448,7 @@
       <c r="AH381" s="3"/>
       <c r="AI381" s="3"/>
     </row>
-    <row r="382" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -14468,7 +14483,7 @@
       <c r="AH382" s="3"/>
       <c r="AI382" s="3"/>
     </row>
-    <row r="383" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -14503,7 +14518,7 @@
       <c r="AH383" s="3"/>
       <c r="AI383" s="3"/>
     </row>
-    <row r="384" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -14538,7 +14553,7 @@
       <c r="AH384" s="3"/>
       <c r="AI384" s="3"/>
     </row>
-    <row r="385" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -14573,7 +14588,7 @@
       <c r="AH385" s="3"/>
       <c r="AI385" s="3"/>
     </row>
-    <row r="386" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -14608,7 +14623,7 @@
       <c r="AH386" s="3"/>
       <c r="AI386" s="3"/>
     </row>
-    <row r="387" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -14643,7 +14658,7 @@
       <c r="AH387" s="3"/>
       <c r="AI387" s="3"/>
     </row>
-    <row r="388" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -14678,7 +14693,7 @@
       <c r="AH388" s="3"/>
       <c r="AI388" s="3"/>
     </row>
-    <row r="389" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -14713,7 +14728,7 @@
       <c r="AH389" s="3"/>
       <c r="AI389" s="3"/>
     </row>
-    <row r="390" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -14748,7 +14763,7 @@
       <c r="AH390" s="3"/>
       <c r="AI390" s="3"/>
     </row>
-    <row r="391" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -14783,7 +14798,7 @@
       <c r="AH391" s="3"/>
       <c r="AI391" s="3"/>
     </row>
-    <row r="392" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -14818,7 +14833,7 @@
       <c r="AH392" s="3"/>
       <c r="AI392" s="3"/>
     </row>
-    <row r="393" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -14853,7 +14868,7 @@
       <c r="AH393" s="3"/>
       <c r="AI393" s="3"/>
     </row>
-    <row r="394" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -14888,7 +14903,7 @@
       <c r="AH394" s="3"/>
       <c r="AI394" s="3"/>
     </row>
-    <row r="395" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -14923,7 +14938,7 @@
       <c r="AH395" s="3"/>
       <c r="AI395" s="3"/>
     </row>
-    <row r="396" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -14958,7 +14973,7 @@
       <c r="AH396" s="3"/>
       <c r="AI396" s="3"/>
     </row>
-    <row r="397" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -14993,7 +15008,7 @@
       <c r="AH397" s="3"/>
       <c r="AI397" s="3"/>
     </row>
-    <row r="398" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -15028,7 +15043,7 @@
       <c r="AH398" s="3"/>
       <c r="AI398" s="3"/>
     </row>
-    <row r="399" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -15063,7 +15078,7 @@
       <c r="AH399" s="3"/>
       <c r="AI399" s="3"/>
     </row>
-    <row r="400" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -15098,7 +15113,7 @@
       <c r="AH400" s="3"/>
       <c r="AI400" s="3"/>
     </row>
-    <row r="401" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -15133,7 +15148,7 @@
       <c r="AH401" s="3"/>
       <c r="AI401" s="3"/>
     </row>
-    <row r="402" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -15168,7 +15183,7 @@
       <c r="AH402" s="3"/>
       <c r="AI402" s="3"/>
     </row>
-    <row r="403" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -15203,7 +15218,7 @@
       <c r="AH403" s="3"/>
       <c r="AI403" s="3"/>
     </row>
-    <row r="404" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -15238,7 +15253,7 @@
       <c r="AH404" s="3"/>
       <c r="AI404" s="3"/>
     </row>
-    <row r="405" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -15273,7 +15288,7 @@
       <c r="AH405" s="3"/>
       <c r="AI405" s="3"/>
     </row>
-    <row r="406" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -15308,7 +15323,7 @@
       <c r="AH406" s="3"/>
       <c r="AI406" s="3"/>
     </row>
-    <row r="407" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -15343,7 +15358,7 @@
       <c r="AH407" s="3"/>
       <c r="AI407" s="3"/>
     </row>
-    <row r="408" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -15378,7 +15393,7 @@
       <c r="AH408" s="3"/>
       <c r="AI408" s="3"/>
     </row>
-    <row r="409" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -15413,7 +15428,7 @@
       <c r="AH409" s="3"/>
       <c r="AI409" s="3"/>
     </row>
-    <row r="410" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -15448,7 +15463,7 @@
       <c r="AH410" s="3"/>
       <c r="AI410" s="3"/>
     </row>
-    <row r="411" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -15483,7 +15498,7 @@
       <c r="AH411" s="3"/>
       <c r="AI411" s="3"/>
     </row>
-    <row r="412" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -15518,7 +15533,7 @@
       <c r="AH412" s="3"/>
       <c r="AI412" s="3"/>
     </row>
-    <row r="413" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -15553,7 +15568,7 @@
       <c r="AH413" s="3"/>
       <c r="AI413" s="3"/>
     </row>
-    <row r="414" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -15588,7 +15603,7 @@
       <c r="AH414" s="3"/>
       <c r="AI414" s="3"/>
     </row>
-    <row r="415" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -15623,7 +15638,7 @@
       <c r="AH415" s="3"/>
       <c r="AI415" s="3"/>
     </row>
-    <row r="416" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -15658,7 +15673,7 @@
       <c r="AH416" s="3"/>
       <c r="AI416" s="3"/>
     </row>
-    <row r="417" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -15693,7 +15708,7 @@
       <c r="AH417" s="3"/>
       <c r="AI417" s="3"/>
     </row>
-    <row r="418" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -15728,7 +15743,7 @@
       <c r="AH418" s="3"/>
       <c r="AI418" s="3"/>
     </row>
-    <row r="419" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -15763,7 +15778,7 @@
       <c r="AH419" s="3"/>
       <c r="AI419" s="3"/>
     </row>
-    <row r="420" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -15798,7 +15813,7 @@
       <c r="AH420" s="3"/>
       <c r="AI420" s="3"/>
     </row>
-    <row r="421" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -15833,7 +15848,7 @@
       <c r="AH421" s="3"/>
       <c r="AI421" s="3"/>
     </row>
-    <row r="422" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -15868,7 +15883,7 @@
       <c r="AH422" s="3"/>
       <c r="AI422" s="3"/>
     </row>
-    <row r="423" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -15903,7 +15918,7 @@
       <c r="AH423" s="3"/>
       <c r="AI423" s="3"/>
     </row>
-    <row r="424" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -15938,7 +15953,7 @@
       <c r="AH424" s="3"/>
       <c r="AI424" s="3"/>
     </row>
-    <row r="425" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -15973,7 +15988,7 @@
       <c r="AH425" s="3"/>
       <c r="AI425" s="3"/>
     </row>
-    <row r="426" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -16008,7 +16023,7 @@
       <c r="AH426" s="3"/>
       <c r="AI426" s="3"/>
     </row>
-    <row r="427" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -16043,7 +16058,7 @@
       <c r="AH427" s="3"/>
       <c r="AI427" s="3"/>
     </row>
-    <row r="428" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -16078,7 +16093,7 @@
       <c r="AH428" s="3"/>
       <c r="AI428" s="3"/>
     </row>
-    <row r="429" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -16113,7 +16128,7 @@
       <c r="AH429" s="3"/>
       <c r="AI429" s="3"/>
     </row>
-    <row r="430" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -16148,7 +16163,7 @@
       <c r="AH430" s="3"/>
       <c r="AI430" s="3"/>
     </row>
-    <row r="431" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -16183,7 +16198,7 @@
       <c r="AH431" s="3"/>
       <c r="AI431" s="3"/>
     </row>
-    <row r="432" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -16218,7 +16233,7 @@
       <c r="AH432" s="3"/>
       <c r="AI432" s="3"/>
     </row>
-    <row r="433" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -16253,7 +16268,7 @@
       <c r="AH433" s="3"/>
       <c r="AI433" s="3"/>
     </row>
-    <row r="434" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -16288,7 +16303,7 @@
       <c r="AH434" s="3"/>
       <c r="AI434" s="3"/>
     </row>
-    <row r="435" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -16323,7 +16338,7 @@
       <c r="AH435" s="3"/>
       <c r="AI435" s="3"/>
     </row>
-    <row r="436" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -16358,7 +16373,7 @@
       <c r="AH436" s="3"/>
       <c r="AI436" s="3"/>
     </row>
-    <row r="437" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -16393,7 +16408,7 @@
       <c r="AH437" s="3"/>
       <c r="AI437" s="3"/>
     </row>
-    <row r="438" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -16428,7 +16443,7 @@
       <c r="AH438" s="3"/>
       <c r="AI438" s="3"/>
     </row>
-    <row r="439" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -16463,7 +16478,7 @@
       <c r="AH439" s="3"/>
       <c r="AI439" s="3"/>
     </row>
-    <row r="440" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -16498,7 +16513,7 @@
       <c r="AH440" s="3"/>
       <c r="AI440" s="3"/>
     </row>
-    <row r="441" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -16533,7 +16548,7 @@
       <c r="AH441" s="3"/>
       <c r="AI441" s="3"/>
     </row>
-    <row r="442" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -16568,7 +16583,7 @@
       <c r="AH442" s="3"/>
       <c r="AI442" s="3"/>
     </row>
-    <row r="443" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -16603,7 +16618,7 @@
       <c r="AH443" s="3"/>
       <c r="AI443" s="3"/>
     </row>
-    <row r="444" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -16638,7 +16653,7 @@
       <c r="AH444" s="3"/>
       <c r="AI444" s="3"/>
     </row>
-    <row r="445" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -16673,7 +16688,7 @@
       <c r="AH445" s="3"/>
       <c r="AI445" s="3"/>
     </row>
-    <row r="446" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -16708,7 +16723,7 @@
       <c r="AH446" s="3"/>
       <c r="AI446" s="3"/>
     </row>
-    <row r="447" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -16743,7 +16758,7 @@
       <c r="AH447" s="3"/>
       <c r="AI447" s="3"/>
     </row>
-    <row r="448" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -16778,7 +16793,7 @@
       <c r="AH448" s="3"/>
       <c r="AI448" s="3"/>
     </row>
-    <row r="449" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -16813,7 +16828,7 @@
       <c r="AH449" s="3"/>
       <c r="AI449" s="3"/>
     </row>
-    <row r="450" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -16848,7 +16863,7 @@
       <c r="AH450" s="3"/>
       <c r="AI450" s="3"/>
     </row>
-    <row r="451" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -16883,7 +16898,7 @@
       <c r="AH451" s="3"/>
       <c r="AI451" s="3"/>
     </row>
-    <row r="452" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -16918,7 +16933,7 @@
       <c r="AH452" s="3"/>
       <c r="AI452" s="3"/>
     </row>
-    <row r="453" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -16953,7 +16968,7 @@
       <c r="AH453" s="3"/>
       <c r="AI453" s="3"/>
     </row>
-    <row r="454" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -16988,7 +17003,7 @@
       <c r="AH454" s="3"/>
       <c r="AI454" s="3"/>
     </row>
-    <row r="455" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -17023,7 +17038,7 @@
       <c r="AH455" s="3"/>
       <c r="AI455" s="3"/>
     </row>
-    <row r="456" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -17058,7 +17073,7 @@
       <c r="AH456" s="3"/>
       <c r="AI456" s="3"/>
     </row>
-    <row r="457" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -17093,7 +17108,7 @@
       <c r="AH457" s="3"/>
       <c r="AI457" s="3"/>
     </row>
-    <row r="458" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -17128,7 +17143,7 @@
       <c r="AH458" s="3"/>
       <c r="AI458" s="3"/>
     </row>
-    <row r="459" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -17163,7 +17178,7 @@
       <c r="AH459" s="3"/>
       <c r="AI459" s="3"/>
     </row>
-    <row r="460" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -17198,7 +17213,7 @@
       <c r="AH460" s="3"/>
       <c r="AI460" s="3"/>
     </row>
-    <row r="461" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -17233,7 +17248,7 @@
       <c r="AH461" s="3"/>
       <c r="AI461" s="3"/>
     </row>
-    <row r="462" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -17268,7 +17283,7 @@
       <c r="AH462" s="3"/>
       <c r="AI462" s="3"/>
     </row>
-    <row r="463" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -17303,7 +17318,7 @@
       <c r="AH463" s="3"/>
       <c r="AI463" s="3"/>
     </row>
-    <row r="464" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -17338,7 +17353,7 @@
       <c r="AH464" s="3"/>
       <c r="AI464" s="3"/>
     </row>
-    <row r="465" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -17373,7 +17388,7 @@
       <c r="AH465" s="3"/>
       <c r="AI465" s="3"/>
     </row>
-    <row r="466" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -17408,7 +17423,7 @@
       <c r="AH466" s="3"/>
       <c r="AI466" s="3"/>
     </row>
-    <row r="467" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -17443,7 +17458,7 @@
       <c r="AH467" s="3"/>
       <c r="AI467" s="3"/>
     </row>
-    <row r="468" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -17478,7 +17493,7 @@
       <c r="AH468" s="3"/>
       <c r="AI468" s="3"/>
     </row>
-    <row r="469" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -17513,7 +17528,7 @@
       <c r="AH469" s="3"/>
       <c r="AI469" s="3"/>
     </row>
-    <row r="470" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -17548,7 +17563,7 @@
       <c r="AH470" s="3"/>
       <c r="AI470" s="3"/>
     </row>
-    <row r="471" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -17583,7 +17598,7 @@
       <c r="AH471" s="3"/>
       <c r="AI471" s="3"/>
     </row>
-    <row r="472" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -17618,7 +17633,7 @@
       <c r="AH472" s="3"/>
       <c r="AI472" s="3"/>
     </row>
-    <row r="473" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -17653,7 +17668,7 @@
       <c r="AH473" s="3"/>
       <c r="AI473" s="3"/>
     </row>
-    <row r="474" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -17688,7 +17703,7 @@
       <c r="AH474" s="3"/>
       <c r="AI474" s="3"/>
     </row>
-    <row r="475" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -17723,7 +17738,7 @@
       <c r="AH475" s="3"/>
       <c r="AI475" s="3"/>
     </row>
-    <row r="476" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -17758,7 +17773,7 @@
       <c r="AH476" s="3"/>
       <c r="AI476" s="3"/>
     </row>
-    <row r="477" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -17793,7 +17808,7 @@
       <c r="AH477" s="3"/>
       <c r="AI477" s="3"/>
     </row>
-    <row r="478" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -17828,7 +17843,7 @@
       <c r="AH478" s="3"/>
       <c r="AI478" s="3"/>
     </row>
-    <row r="479" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -17863,7 +17878,7 @@
       <c r="AH479" s="3"/>
       <c r="AI479" s="3"/>
     </row>
-    <row r="480" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -17898,7 +17913,7 @@
       <c r="AH480" s="3"/>
       <c r="AI480" s="3"/>
     </row>
-    <row r="481" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -17933,7 +17948,7 @@
       <c r="AH481" s="3"/>
       <c r="AI481" s="3"/>
     </row>
-    <row r="482" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -17968,7 +17983,7 @@
       <c r="AH482" s="3"/>
       <c r="AI482" s="3"/>
     </row>
-    <row r="483" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -18003,7 +18018,7 @@
       <c r="AH483" s="3"/>
       <c r="AI483" s="3"/>
     </row>
-    <row r="484" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -18038,7 +18053,7 @@
       <c r="AH484" s="3"/>
       <c r="AI484" s="3"/>
     </row>
-    <row r="485" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -18073,7 +18088,7 @@
       <c r="AH485" s="3"/>
       <c r="AI485" s="3"/>
     </row>
-    <row r="486" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -18108,7 +18123,7 @@
       <c r="AH486" s="3"/>
       <c r="AI486" s="3"/>
     </row>
-    <row r="487" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -18143,7 +18158,7 @@
       <c r="AH487" s="3"/>
       <c r="AI487" s="3"/>
     </row>
-    <row r="488" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -18178,7 +18193,7 @@
       <c r="AH488" s="3"/>
       <c r="AI488" s="3"/>
     </row>
-    <row r="489" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -18213,7 +18228,7 @@
       <c r="AH489" s="3"/>
       <c r="AI489" s="3"/>
     </row>
-    <row r="490" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -18248,7 +18263,7 @@
       <c r="AH490" s="3"/>
       <c r="AI490" s="3"/>
     </row>
-    <row r="491" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -18283,7 +18298,7 @@
       <c r="AH491" s="3"/>
       <c r="AI491" s="3"/>
     </row>
-    <row r="492" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -18318,7 +18333,7 @@
       <c r="AH492" s="3"/>
       <c r="AI492" s="3"/>
     </row>
-    <row r="493" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -18353,7 +18368,7 @@
       <c r="AH493" s="3"/>
       <c r="AI493" s="3"/>
     </row>
-    <row r="494" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -18388,7 +18403,7 @@
       <c r="AH494" s="3"/>
       <c r="AI494" s="3"/>
     </row>
-    <row r="495" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -18423,7 +18438,7 @@
       <c r="AH495" s="3"/>
       <c r="AI495" s="3"/>
     </row>
-    <row r="496" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -18458,7 +18473,7 @@
       <c r="AH496" s="3"/>
       <c r="AI496" s="3"/>
     </row>
-    <row r="497" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -18493,7 +18508,7 @@
       <c r="AH497" s="3"/>
       <c r="AI497" s="3"/>
     </row>
-    <row r="498" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -18528,7 +18543,7 @@
       <c r="AH498" s="3"/>
       <c r="AI498" s="3"/>
     </row>
-    <row r="499" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -18563,7 +18578,7 @@
       <c r="AH499" s="3"/>
       <c r="AI499" s="3"/>
     </row>
-    <row r="500" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -18598,7 +18613,7 @@
       <c r="AH500" s="3"/>
       <c r="AI500" s="3"/>
     </row>
-    <row r="501" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -18633,7 +18648,7 @@
       <c r="AH501" s="3"/>
       <c r="AI501" s="3"/>
     </row>
-    <row r="502" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -18668,7 +18683,7 @@
       <c r="AH502" s="3"/>
       <c r="AI502" s="3"/>
     </row>
-    <row r="503" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -18703,7 +18718,7 @@
       <c r="AH503" s="3"/>
       <c r="AI503" s="3"/>
     </row>
-    <row r="504" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -18738,7 +18753,7 @@
       <c r="AH504" s="3"/>
       <c r="AI504" s="3"/>
     </row>
-    <row r="505" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -18773,7 +18788,7 @@
       <c r="AH505" s="3"/>
       <c r="AI505" s="3"/>
     </row>
-    <row r="506" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -18808,7 +18823,7 @@
       <c r="AH506" s="3"/>
       <c r="AI506" s="3"/>
     </row>
-    <row r="507" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -18843,7 +18858,7 @@
       <c r="AH507" s="3"/>
       <c r="AI507" s="3"/>
     </row>
-    <row r="508" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -18878,7 +18893,7 @@
       <c r="AH508" s="3"/>
       <c r="AI508" s="3"/>
     </row>
-    <row r="509" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -18913,7 +18928,7 @@
       <c r="AH509" s="3"/>
       <c r="AI509" s="3"/>
     </row>
-    <row r="510" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -18948,7 +18963,7 @@
       <c r="AH510" s="3"/>
       <c r="AI510" s="3"/>
     </row>
-    <row r="511" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -18983,7 +18998,7 @@
       <c r="AH511" s="3"/>
       <c r="AI511" s="3"/>
     </row>
-    <row r="512" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -19018,7 +19033,7 @@
       <c r="AH512" s="3"/>
       <c r="AI512" s="3"/>
     </row>
-    <row r="513" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -19053,7 +19068,7 @@
       <c r="AH513" s="3"/>
       <c r="AI513" s="3"/>
     </row>
-    <row r="514" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -19088,7 +19103,7 @@
       <c r="AH514" s="3"/>
       <c r="AI514" s="3"/>
     </row>
-    <row r="515" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -19123,7 +19138,7 @@
       <c r="AH515" s="3"/>
       <c r="AI515" s="3"/>
     </row>
-    <row r="516" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -19158,7 +19173,7 @@
       <c r="AH516" s="3"/>
       <c r="AI516" s="3"/>
     </row>
-    <row r="517" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -19193,7 +19208,7 @@
       <c r="AH517" s="3"/>
       <c r="AI517" s="3"/>
     </row>
-    <row r="518" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -19228,7 +19243,7 @@
       <c r="AH518" s="3"/>
       <c r="AI518" s="3"/>
     </row>
-    <row r="519" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -19263,7 +19278,7 @@
       <c r="AH519" s="3"/>
       <c r="AI519" s="3"/>
     </row>
-    <row r="520" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -19298,7 +19313,7 @@
       <c r="AH520" s="3"/>
       <c r="AI520" s="3"/>
     </row>
-    <row r="521" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -19333,7 +19348,7 @@
       <c r="AH521" s="3"/>
       <c r="AI521" s="3"/>
     </row>
-    <row r="522" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -19368,7 +19383,7 @@
       <c r="AH522" s="3"/>
       <c r="AI522" s="3"/>
     </row>
-    <row r="523" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -19403,7 +19418,7 @@
       <c r="AH523" s="3"/>
       <c r="AI523" s="3"/>
     </row>
-    <row r="524" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -19438,7 +19453,7 @@
       <c r="AH524" s="3"/>
       <c r="AI524" s="3"/>
     </row>
-    <row r="525" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -19473,7 +19488,7 @@
       <c r="AH525" s="3"/>
       <c r="AI525" s="3"/>
     </row>
-    <row r="526" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -19508,7 +19523,7 @@
       <c r="AH526" s="3"/>
       <c r="AI526" s="3"/>
     </row>
-    <row r="527" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -19543,7 +19558,7 @@
       <c r="AH527" s="3"/>
       <c r="AI527" s="3"/>
     </row>
-    <row r="528" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -19578,7 +19593,7 @@
       <c r="AH528" s="3"/>
       <c r="AI528" s="3"/>
     </row>
-    <row r="529" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -19613,7 +19628,7 @@
       <c r="AH529" s="3"/>
       <c r="AI529" s="3"/>
     </row>
-    <row r="530" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -19648,7 +19663,7 @@
       <c r="AH530" s="3"/>
       <c r="AI530" s="3"/>
     </row>
-    <row r="531" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -19683,7 +19698,7 @@
       <c r="AH531" s="3"/>
       <c r="AI531" s="3"/>
     </row>
-    <row r="532" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -19718,7 +19733,7 @@
       <c r="AH532" s="3"/>
       <c r="AI532" s="3"/>
     </row>
-    <row r="533" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -19753,7 +19768,7 @@
       <c r="AH533" s="3"/>
       <c r="AI533" s="3"/>
     </row>
-    <row r="534" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -19788,7 +19803,7 @@
       <c r="AH534" s="3"/>
       <c r="AI534" s="3"/>
     </row>
-    <row r="535" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -19823,7 +19838,7 @@
       <c r="AH535" s="3"/>
       <c r="AI535" s="3"/>
     </row>
-    <row r="536" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -19858,7 +19873,7 @@
       <c r="AH536" s="3"/>
       <c r="AI536" s="3"/>
     </row>
-    <row r="537" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -19893,7 +19908,7 @@
       <c r="AH537" s="3"/>
       <c r="AI537" s="3"/>
     </row>
-    <row r="538" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -19928,7 +19943,7 @@
       <c r="AH538" s="3"/>
       <c r="AI538" s="3"/>
     </row>
-    <row r="539" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -19963,7 +19978,7 @@
       <c r="AH539" s="3"/>
       <c r="AI539" s="3"/>
     </row>
-    <row r="540" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -19998,7 +20013,7 @@
       <c r="AH540" s="3"/>
       <c r="AI540" s="3"/>
     </row>
-    <row r="541" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -20033,7 +20048,7 @@
       <c r="AH541" s="3"/>
       <c r="AI541" s="3"/>
     </row>
-    <row r="542" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -20068,7 +20083,7 @@
       <c r="AH542" s="3"/>
       <c r="AI542" s="3"/>
     </row>
-    <row r="543" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -20103,7 +20118,7 @@
       <c r="AH543" s="3"/>
       <c r="AI543" s="3"/>
     </row>
-    <row r="544" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -20138,7 +20153,7 @@
       <c r="AH544" s="3"/>
       <c r="AI544" s="3"/>
     </row>
-    <row r="545" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -20173,7 +20188,7 @@
       <c r="AH545" s="3"/>
       <c r="AI545" s="3"/>
     </row>
-    <row r="546" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -20208,7 +20223,7 @@
       <c r="AH546" s="3"/>
       <c r="AI546" s="3"/>
     </row>
-    <row r="547" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>

--- a/QCOM.xlsx
+++ b/QCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC2F3E-47D4-4681-9EB2-4C3A9A8524E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83463F21-3FEA-4C31-A2BE-3D49A17B38B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{901B265C-E4E9-49A1-A062-FD11118EC225}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{901B265C-E4E9-49A1-A062-FD11118EC225}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>IR</t>
-  </si>
-  <si>
-    <t>FQ424</t>
   </si>
   <si>
     <t>Main</t>
@@ -197,18 +194,30 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>FQ325</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -265,21 +274,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -616,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F3FCE0-15FD-4F58-A719-3DD3ADD690BE}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -641,18 +655,18 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>159.83000000000001</v>
+        <v>171.39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
-        <v>1111</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
+      <c r="H3" s="9">
+        <v>1079</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -662,9 +676,9 @@
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <f>+H3*H2</f>
-        <v>177571.13</v>
+        <v>184929.81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -674,34 +688,37 @@
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3">
-        <f>7849+5451</f>
-        <v>13300</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
+      <c r="H5" s="9">
+        <f>5448+4563</f>
+        <v>10011</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
-        <f>13270+1364</f>
-        <v>14634</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
+      <c r="H6" s="9">
+        <f>0+14788</f>
+        <v>14788</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <f>+H4-H5+H6</f>
-        <v>178905.13</v>
-      </c>
+        <v>189706.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -710,13 +727,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50516746-E39A-4F81-8293-588CAE6D6517}">
-  <dimension ref="A1:AI547"/>
+  <dimension ref="A1:CN547"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,979 +743,2249 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>5899</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>6328</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
+        <v>22570</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>24863</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="9"/>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>811</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <v>984</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
+        <v>1872</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2910</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+      <c r="CL4" s="9"/>
+      <c r="CM4" s="9"/>
+      <c r="CN4" s="9"/>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>1359</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1681</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <v>5940</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5423</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="9"/>
+      <c r="CM5" s="9"/>
+      <c r="CN5" s="9"/>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>22570</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>24863</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>1872</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>2910</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>5940</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>5423</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>7993</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>8893</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>37171</v>
+      </c>
+      <c r="P6" s="9">
+        <v>30028</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>32791</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="9"/>
+      <c r="CM6" s="9"/>
+      <c r="CN6" s="9"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>37171</v>
-      </c>
-      <c r="P6" s="3">
-        <v>30028</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>32791</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1472</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>7029</v>
+      </c>
+      <c r="P7" s="9">
+        <v>5792</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>6171</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="9"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="9"/>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+      <c r="CL7" s="9"/>
+      <c r="CM7" s="9"/>
+      <c r="CN7" s="9"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>7029</v>
-      </c>
-      <c r="P7" s="3">
-        <v>5792</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>6171</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
-        <f t="shared" ref="L8:P8" si="0">+SUM(L6:L7)</f>
+      <c r="C8" s="10">
+        <f t="shared" ref="C8:J8" si="0">+SUM(C6:C7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>9393</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="6">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>10365</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
+        <f t="shared" ref="L8:P8" si="1">+SUM(L6:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="1"/>
         <v>44200</v>
       </c>
-      <c r="P8" s="6">
-        <f t="shared" si="0"/>
+      <c r="P8" s="10">
+        <f t="shared" si="1"/>
         <v>35820</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="10">
         <f>+SUM(Q6:Q7)</f>
         <v>38962</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="10">
         <f>+SUM(R6:R7)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="9"/>
+      <c r="CM8" s="9"/>
+      <c r="CN8" s="9"/>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>4174</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <v>4606</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
         <v>18635</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="9">
         <v>15869</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="9">
         <v>17060</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="9"/>
+      <c r="CM9" s="9"/>
+      <c r="CN9" s="9"/>
+    </row>
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <f t="shared" ref="L10:P10" si="1">+L8-L9</f>
+        <v>36</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:J10" si="2">+C8-C9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" si="1"/>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" si="1"/>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
+        <v>5219</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>5759</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <f t="shared" ref="L10:P10" si="3">+L8-L9</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="3"/>
         <v>25565</v>
       </c>
-      <c r="P10" s="3">
-        <f t="shared" si="1"/>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
         <v>19951</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="9">
         <f>+Q8-Q9</f>
         <v>21902</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" ref="R10" si="2">+R8-R9</f>
+      <c r="R10" s="9">
+        <f t="shared" ref="R10" si="4">+R8-R9</f>
         <v>0</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="9"/>
+      <c r="CM10" s="9"/>
+      <c r="CN10" s="9"/>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>2259</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>2226</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
+        <v>8194</v>
+      </c>
+      <c r="P11" s="9">
+        <v>8818</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>8893</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
+      <c r="BT11" s="9"/>
+      <c r="BU11" s="9"/>
+      <c r="BV11" s="9"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="9"/>
+      <c r="BZ11" s="9"/>
+      <c r="CA11" s="9"/>
+      <c r="CB11" s="9"/>
+      <c r="CC11" s="9"/>
+      <c r="CD11" s="9"/>
+      <c r="CE11" s="9"/>
+      <c r="CF11" s="9"/>
+      <c r="CG11" s="9"/>
+      <c r="CH11" s="9"/>
+      <c r="CI11" s="9"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="9"/>
+      <c r="CM11" s="9"/>
+      <c r="CN11" s="9"/>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>8194</v>
-      </c>
-      <c r="P11" s="3">
-        <v>8818</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>8893</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>664</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <v>771</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
+        <v>2570</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2483</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>2759</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>2570</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2483</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2759</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9">
         <v>-1059</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="9">
         <v>862</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="9">
         <v>179</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <f t="shared" ref="L14:P14" si="3">+L10-SUM(L11:L13)</f>
+        <v>37</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14:J14" si="5">+C10-SUM(C11:C13)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <f t="shared" si="3"/>
+      <c r="D14" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <f t="shared" si="3"/>
+      <c r="E14" s="9">
+        <f t="shared" si="5"/>
+        <v>2221</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="3"/>
+      <c r="G14" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="5"/>
+        <v>2762</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
+        <f t="shared" ref="L14:P14" si="6">+L10-SUM(L11:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="6"/>
         <v>15860</v>
       </c>
-      <c r="P14" s="3">
-        <f t="shared" si="3"/>
+      <c r="P14" s="9">
+        <f t="shared" si="6"/>
         <v>7788</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="9">
         <f>+Q10-SUM(Q11:Q13)</f>
         <v>10071</v>
       </c>
-      <c r="R14" s="3">
-        <f t="shared" ref="R14" si="4">+R10-SUM(R11:R13)</f>
+      <c r="R14" s="9">
+        <f t="shared" ref="R14" si="7">+R10-SUM(R11:R13)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>168</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>168</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
+        <v>490</v>
+      </c>
+      <c r="P15" s="9">
+        <v>694</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>697</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+      <c r="CL15" s="9"/>
+      <c r="CM15" s="9"/>
+      <c r="CN15" s="9"/>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3">
-        <v>490</v>
-      </c>
-      <c r="P15" s="3">
-        <v>694</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>697</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>226</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>358</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9">
+        <v>-372</v>
+      </c>
+      <c r="P16" s="9">
+        <v>349</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>962</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+    </row>
+    <row r="17" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>-372</v>
-      </c>
-      <c r="P16" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>962</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <f t="shared" ref="L17:P17" si="5">+L14-L15+L16</f>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17:J17" si="8">+C14-C15+C16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="3">
-        <f t="shared" si="5"/>
+      <c r="D17" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N17" s="3">
-        <f t="shared" si="5"/>
+      <c r="E17" s="9">
+        <f t="shared" si="8"/>
+        <v>2279</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" si="5"/>
+      <c r="G17" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="8"/>
+        <v>2952</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
+        <f t="shared" ref="L17:P17" si="9">+L14-L15+L16</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="9"/>
         <v>14998</v>
       </c>
-      <c r="P17" s="3">
-        <f t="shared" si="5"/>
+      <c r="P17" s="9">
+        <f t="shared" si="9"/>
         <v>7443</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="9">
         <f>+Q14-Q15+Q16</f>
         <v>10336</v>
       </c>
-      <c r="R17" s="3">
-        <f t="shared" ref="R17" si="6">+R14-R15+R16</f>
+      <c r="R17" s="9">
+        <f t="shared" ref="R17" si="10">+R14-R15+R16</f>
         <v>0</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="9"/>
+      <c r="CM17" s="9"/>
+      <c r="CN17" s="9"/>
+    </row>
+    <row r="18" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>171</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <v>286</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
+        <v>2012</v>
+      </c>
+      <c r="P18" s="9">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>226</v>
+      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
+      <c r="CM18" s="9"/>
+      <c r="CN18" s="9"/>
+    </row>
+    <row r="19" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3">
-        <v>2012</v>
-      </c>
-      <c r="P18" s="3">
-        <v>104</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>226</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <f t="shared" ref="L19:P19" si="7">+L17-L18</f>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <f t="shared" ref="E19:H19" si="11">+E17-E18</f>
+        <v>2108</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="3">
-        <f t="shared" si="7"/>
+      <c r="G19" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N19" s="3">
-        <f t="shared" si="7"/>
+      <c r="H19" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="7"/>
+      <c r="I19" s="9">
+        <f>+I17-I18</f>
+        <v>2666</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
+        <f t="shared" ref="L19:P19" si="12">+L17-L18</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="12"/>
         <v>12986</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" si="7"/>
+      <c r="P19" s="9">
+        <f t="shared" si="12"/>
         <v>7339</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="9">
         <f>+Q17-Q18</f>
         <v>10110</v>
       </c>
-      <c r="R19" s="3">
-        <f t="shared" ref="R19" si="8">+R17-R18</f>
+      <c r="R19" s="9">
+        <f t="shared" ref="R19" si="13">+R17-R18</f>
         <v>0</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+      <c r="CL19" s="9"/>
+      <c r="CM19" s="9"/>
+      <c r="CN19" s="9"/>
+    </row>
+    <row r="20" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>-21</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9">
+        <v>-50</v>
+      </c>
+      <c r="P20" s="9">
+        <v>-107</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>32</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+    </row>
+    <row r="21" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3">
-        <v>-50</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-107</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>32</v>
-      </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <f t="shared" ref="L21:P21" si="9">+L19+L20</f>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:H21" si="14">+C19-C20</f>
         <v>0</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" si="9"/>
+      <c r="D21" s="9">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N21" s="3">
-        <f t="shared" si="9"/>
+      <c r="E21" s="9">
+        <f t="shared" si="14"/>
+        <v>2129</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="9"/>
+      <c r="G21" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <f>+I19-I20</f>
+        <v>2666</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" ref="J21" si="15">+J19-J20</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
+        <f t="shared" ref="L21:P21" si="16">+L19+L20</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="16"/>
         <v>12936</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="9"/>
+      <c r="P21" s="9">
+        <f t="shared" si="16"/>
         <v>7232</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="9">
         <f>+Q19+Q20</f>
         <v>10142</v>
       </c>
-      <c r="R21" s="3">
-        <f t="shared" ref="R21" si="10">+R19+R20</f>
+      <c r="R21" s="9">
+        <f t="shared" ref="R21" si="17">+R19+R20</f>
         <v>0</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+    </row>
+    <row r="22" spans="2:92" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1733,45 +3020,69 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="e">
+        <f t="shared" ref="C23:D23" si="18">+C21/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="6" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="6">
+        <f>+E21/E24</f>
+        <v>1.9077060931899641</v>
+      </c>
+      <c r="F23" s="6" t="e">
+        <f t="shared" ref="F23:J23" si="19">+F21/F24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="6" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="6" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="19"/>
+        <v>2.4413919413919416</v>
+      </c>
+      <c r="J23" s="6" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="7" t="e">
-        <f t="shared" ref="L23:P23" si="11">+L21/L24</f>
+      <c r="L23" s="6" t="e">
+        <f t="shared" ref="L23:P23" si="20">+L21/L24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="7" t="e">
-        <f t="shared" si="11"/>
+      <c r="M23" s="6" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="7" t="e">
-        <f t="shared" si="11"/>
+      <c r="N23" s="6" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="7">
-        <f t="shared" si="11"/>
+      <c r="O23" s="6">
+        <f t="shared" si="20"/>
         <v>11.519145146927873</v>
       </c>
-      <c r="P23" s="7">
-        <f t="shared" si="11"/>
+      <c r="P23" s="6">
+        <f t="shared" si="20"/>
         <v>6.4744852282900629</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <f>+Q21/Q24</f>
         <v>9.0878136200716852</v>
       </c>
-      <c r="R23" s="7" t="e">
-        <f t="shared" ref="R23" si="12">+R21/R24</f>
+      <c r="R23" s="6" t="e">
+        <f t="shared" ref="R23" si="21">+R21/R24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="3"/>
@@ -1792,17 +3103,21 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>1116</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>1092</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1836,7 +3151,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1871,37 +3186,49 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="G26" s="7" t="e">
+        <f t="shared" ref="G26:H28" si="22">+G6/C6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:J29" si="23">+I6/E6-1</f>
+        <v>0.11259852370824475</v>
+      </c>
+      <c r="J26" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8" t="e">
-        <f t="shared" ref="M26:P28" si="13">+M6/L6-1</f>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="e">
+        <f t="shared" ref="M26:P28" si="24">+M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="N26" s="7" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="O26" s="7" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="8">
-        <f t="shared" si="13"/>
+      <c r="P26" s="7">
+        <f t="shared" si="24"/>
         <v>-0.1921659358101746</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <f>+Q6/P6-1</f>
         <v>9.2014120154522372E-2</v>
       </c>
@@ -1924,38 +3251,50 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="G27" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="23"/>
+        <v>5.1428571428571379E-2</v>
+      </c>
+      <c r="J27" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="M27" s="7" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="N27" s="7" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="O27" s="7" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="8">
-        <f t="shared" si="13"/>
+      <c r="P27" s="7">
+        <f t="shared" si="24"/>
         <v>-0.17598520415421826</v>
       </c>
-      <c r="Q27" s="8">
-        <f t="shared" ref="Q27:Q28" si="14">+Q7/P7-1</f>
+      <c r="Q27" s="7">
+        <f t="shared" ref="Q27:Q28" si="25">+Q7/P7-1</f>
         <v>6.5435082872928207E-2</v>
       </c>
       <c r="R27" s="3"/>
@@ -1977,38 +3316,50 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>49</v>
+    <row r="28" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="G28" s="11" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="11" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="11">
+        <f>+I8/E8-1</f>
+        <v>0.10348131587352283</v>
+      </c>
+      <c r="J28" s="11" t="e">
+        <f>+J8/F8-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="M28" s="11" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="N28" s="11" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="O28" s="11" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="8">
-        <f t="shared" si="13"/>
+      <c r="P28" s="11">
+        <f t="shared" si="24"/>
         <v>-0.18959276018099547</v>
       </c>
-      <c r="Q28" s="8">
-        <f t="shared" si="14"/>
+      <c r="Q28" s="11">
+        <f t="shared" si="25"/>
         <v>8.7716359575656044E-2</v>
       </c>
       <c r="R28" s="3"/>
@@ -2030,40 +3381,64 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C29" s="7" t="e">
+        <f t="shared" ref="C29:J29" si="26">+C10/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="26"/>
+        <v>0.555626530394975</v>
+      </c>
+      <c r="F29" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="7" t="e">
+        <f t="shared" ref="H29:I29" si="27">+H10/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="26"/>
+        <v>0.5556198745779064</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="8" t="e">
-        <f t="shared" ref="L29" si="15">+L10/L8</f>
+      <c r="L29" s="7" t="e">
+        <f t="shared" ref="L29" si="28">+L10/L8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="8" t="e">
-        <f t="shared" ref="M29:P29" si="16">+M10/M8</f>
+      <c r="M29" s="7" t="e">
+        <f t="shared" ref="M29:P29" si="29">+M10/M8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="8" t="e">
-        <f t="shared" si="16"/>
+      <c r="N29" s="7" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="8">
-        <f t="shared" si="16"/>
+      <c r="O29" s="7">
+        <f t="shared" si="29"/>
         <v>0.5783936651583711</v>
       </c>
-      <c r="P29" s="8">
-        <f t="shared" si="16"/>
+      <c r="P29" s="7">
+        <f t="shared" si="29"/>
         <v>0.55697934115019543</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <f>+Q10/Q8</f>
         <v>0.56213746727580716</v>
       </c>
@@ -2086,40 +3461,64 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C30" s="7" t="e">
+        <f t="shared" ref="C30:J30" si="30">+C14/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="30"/>
+        <v>0.23645267752581708</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="7" t="e">
+        <f t="shared" ref="H30:I30" si="31">+H14/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="30"/>
+        <v>0.26647370959961408</v>
+      </c>
+      <c r="J30" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="8" t="e">
-        <f t="shared" ref="L30" si="17">+L14/L8</f>
+      <c r="L30" s="7" t="e">
+        <f t="shared" ref="L30" si="32">+L14/L8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="8" t="e">
-        <f t="shared" ref="M30:P30" si="18">+M14/M8</f>
+      <c r="M30" s="7" t="e">
+        <f t="shared" ref="M30:P30" si="33">+M14/M8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="8" t="e">
-        <f t="shared" si="18"/>
+      <c r="N30" s="7" t="e">
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="8">
-        <f t="shared" si="18"/>
+      <c r="O30" s="7">
+        <f t="shared" si="33"/>
         <v>0.35882352941176471</v>
       </c>
-      <c r="P30" s="8">
-        <f t="shared" si="18"/>
+      <c r="P30" s="7">
+        <f t="shared" si="33"/>
         <v>0.21742043551088777</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <f>+Q14/Q8</f>
         <v>0.25848262409527234</v>
       </c>
@@ -2142,40 +3541,64 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C31" s="7" t="e">
+        <f t="shared" ref="C31:J31" si="34">+C18/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="7" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="34"/>
+        <v>7.5032909170688902E-2</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="7" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="7" t="e">
+        <f t="shared" ref="H31:I31" si="35">+H18/H17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="34"/>
+        <v>9.6883468834688347E-2</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="8" t="e">
-        <f t="shared" ref="L31:P31" si="19">+L18/L17</f>
+      <c r="L31" s="7" t="e">
+        <f t="shared" ref="L31:P31" si="36">+L18/L17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="8" t="e">
-        <f t="shared" si="19"/>
+      <c r="M31" s="7" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="8" t="e">
-        <f t="shared" si="19"/>
+      <c r="N31" s="7" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="8">
-        <f t="shared" si="19"/>
+      <c r="O31" s="7">
+        <f t="shared" si="36"/>
         <v>0.13415122016268835</v>
       </c>
-      <c r="P31" s="8">
-        <f t="shared" si="19"/>
+      <c r="P31" s="7">
+        <f t="shared" si="36"/>
         <v>1.3972860405750369E-2</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="7">
         <f>+Q18/Q17</f>
         <v>2.186532507739938E-2</v>
       </c>
@@ -2198,7 +3621,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
